--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 2.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="59">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>10 Jan -- 16 Jan 2021</t>
+  </si>
+  <si>
+    <t>17 Jan -- 23 Jan 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -545,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G2">
         <v>0.63</v>
@@ -632,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -652,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -672,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -692,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -712,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -732,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -752,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -772,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -792,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -812,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -832,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -852,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -872,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -892,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -912,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -932,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -952,7 +955,7 @@
         <v>10.57</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -972,7 +975,7 @@
         <v>9.960000000000001</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -992,7 +995,7 @@
         <v>10.33</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1012,7 +1015,7 @@
         <v>17.64</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1032,7 +1035,7 @@
         <v>15.1</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1052,7 +1055,7 @@
         <v>8.31</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1072,7 +1075,7 @@
         <v>2.64</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1092,7 +1095,7 @@
         <v>4.2</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1112,7 +1115,7 @@
         <v>7.8</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1132,7 +1135,7 @@
         <v>2.21</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1152,7 +1155,7 @@
         <v>0.65</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1172,7 +1175,7 @@
         <v>18.23</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1192,7 +1195,7 @@
         <v>56.67</v>
       </c>
       <c r="F31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1212,7 +1215,7 @@
         <v>101.95</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1232,7 +1235,7 @@
         <v>20.39</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1252,7 +1255,7 @@
         <v>11.71</v>
       </c>
       <c r="F34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1272,7 +1275,7 @@
         <v>9.82</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1292,7 +1295,7 @@
         <v>6.4</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1312,7 +1315,7 @@
         <v>17.78</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1332,7 +1335,7 @@
         <v>2.51</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1352,7 +1355,7 @@
         <v>8.710000000000001</v>
       </c>
       <c r="F39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1372,7 +1375,7 @@
         <v>30.48</v>
       </c>
       <c r="F40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1392,7 +1395,7 @@
         <v>13.38</v>
       </c>
       <c r="F41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1412,7 +1415,7 @@
         <v>14.09</v>
       </c>
       <c r="F42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1432,7 +1435,7 @@
         <v>10.19</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1452,7 +1455,7 @@
         <v>46.54</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J44">
         <v>46.54</v>
@@ -1472,7 +1475,7 @@
         <v>126.93</v>
       </c>
       <c r="F45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1492,7 +1495,7 @@
         <v>46.54</v>
       </c>
       <c r="F46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J46">
         <v>46.54</v>
@@ -1512,7 +1515,35 @@
         <v>126.93</v>
       </c>
       <c r="F47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48">
+        <v>126.93</v>
+      </c>
+      <c r="F48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
         <v>57</v>
+      </c>
+      <c r="D49">
+        <v>125.24</v>
+      </c>
+      <c r="F49" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 2.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="61">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -55,6 +55,9 @@
     <t>2021-01-09</t>
   </si>
   <si>
+    <t>2021-01-16</t>
+  </si>
+  <si>
     <t>15 Mar -- 21 Mar 2020</t>
   </si>
   <si>
@@ -188,6 +191,9 @@
   </si>
   <si>
     <t>17 Jan -- 23 Jan 2021</t>
+  </si>
+  <si>
+    <t>24 Jan -- 30 Jan 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -548,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,7 +600,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>2.57</v>
@@ -606,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G2">
         <v>0.63</v>
@@ -623,7 +629,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -635,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -643,7 +649,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>22.43</v>
@@ -655,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -663,7 +669,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>62.29</v>
@@ -675,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -683,7 +689,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>106.71</v>
@@ -695,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -703,7 +709,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>167.14</v>
@@ -715,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,7 +729,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>159</v>
@@ -735,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -743,7 +749,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>162.71</v>
@@ -755,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -763,7 +769,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>139.57</v>
@@ -775,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -783,7 +789,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>95.14</v>
@@ -795,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -803,7 +809,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>99</v>
@@ -815,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -823,7 +829,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>98.70999999999999</v>
@@ -835,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -843,7 +849,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>47.57</v>
@@ -855,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -863,7 +869,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>40.43</v>
@@ -875,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -883,7 +889,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>15.71</v>
@@ -895,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -903,7 +909,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>22.29</v>
@@ -915,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -923,7 +929,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>12.29</v>
@@ -935,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -943,7 +949,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>10.57</v>
@@ -955,7 +961,7 @@
         <v>10.57</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -963,7 +969,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>5.29</v>
@@ -975,7 +981,7 @@
         <v>9.960000000000001</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -983,7 +989,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21">
         <v>8.140000000000001</v>
@@ -995,7 +1001,7 @@
         <v>10.33</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1003,7 +1009,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>5.43</v>
@@ -1015,7 +1021,7 @@
         <v>17.64</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1023,7 +1029,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>6.86</v>
@@ -1035,7 +1041,7 @@
         <v>15.1</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1043,7 +1049,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24">
         <v>6.43</v>
@@ -1055,7 +1061,7 @@
         <v>8.31</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1063,7 +1069,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25">
         <v>6.29</v>
@@ -1075,7 +1081,7 @@
         <v>2.64</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1083,7 +1089,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26">
         <v>4.43</v>
@@ -1095,7 +1101,7 @@
         <v>4.2</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1103,7 +1109,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -1115,7 +1121,7 @@
         <v>7.8</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1123,7 +1129,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -1135,7 +1141,7 @@
         <v>2.21</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1143,7 +1149,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29">
         <v>7.29</v>
@@ -1155,7 +1161,7 @@
         <v>0.65</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1163,7 +1169,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30">
         <v>25</v>
@@ -1175,7 +1181,7 @@
         <v>18.23</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1183,7 +1189,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31">
         <v>24.71</v>
@@ -1195,7 +1201,7 @@
         <v>56.67</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1203,7 +1209,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32">
         <v>17.29</v>
@@ -1215,7 +1221,7 @@
         <v>101.95</v>
       </c>
       <c r="F32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1223,7 +1229,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33">
         <v>26.71</v>
@@ -1235,7 +1241,7 @@
         <v>20.39</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1243,7 +1249,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34">
         <v>31.14</v>
@@ -1255,7 +1261,7 @@
         <v>11.71</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1263,7 +1269,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C35">
         <v>51.43</v>
@@ -1275,7 +1281,7 @@
         <v>9.82</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1283,7 +1289,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C36">
         <v>57.14</v>
@@ -1295,7 +1301,7 @@
         <v>6.4</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1303,7 +1309,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37">
         <v>72.56999999999999</v>
@@ -1315,7 +1321,7 @@
         <v>17.78</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1323,7 +1329,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38">
         <v>76.86</v>
@@ -1335,7 +1341,7 @@
         <v>2.51</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1343,7 +1349,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C39">
         <v>87.70999999999999</v>
@@ -1355,7 +1361,7 @@
         <v>8.710000000000001</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1363,7 +1369,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C40">
         <v>108.57</v>
@@ -1375,7 +1381,7 @@
         <v>30.48</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1383,7 +1389,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C41">
         <v>114.86</v>
@@ -1395,7 +1401,7 @@
         <v>13.38</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1403,7 +1409,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C42">
         <v>94.70999999999999</v>
@@ -1415,7 +1421,7 @@
         <v>14.09</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1423,7 +1429,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C43">
         <v>124.71</v>
@@ -1435,7 +1441,7 @@
         <v>10.19</v>
       </c>
       <c r="F43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1443,7 +1449,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C44">
         <v>166</v>
@@ -1455,7 +1461,7 @@
         <v>46.54</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J44">
         <v>46.54</v>
@@ -1469,13 +1475,25 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C45">
+        <v>145.43</v>
       </c>
       <c r="D45">
         <v>126.93</v>
       </c>
+      <c r="E45">
+        <v>18.5</v>
+      </c>
       <c r="F45" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="J45">
+        <v>32.52</v>
+      </c>
+      <c r="K45">
+        <v>20.38</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1483,7 +1501,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C46">
         <v>166</v>
@@ -1495,13 +1513,13 @@
         <v>46.54</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J46">
-        <v>46.54</v>
+        <v>37.19</v>
       </c>
       <c r="K46">
-        <v>28.04</v>
+        <v>22.93</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1509,13 +1527,25 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C47">
+        <v>145.43</v>
       </c>
       <c r="D47">
         <v>126.93</v>
       </c>
+      <c r="E47">
+        <v>18.5</v>
+      </c>
       <c r="F47" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="J47">
+        <v>32.52</v>
+      </c>
+      <c r="K47">
+        <v>20.38</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1523,13 +1553,25 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C48">
+        <v>145.43</v>
       </c>
       <c r="D48">
         <v>126.93</v>
       </c>
+      <c r="E48">
+        <v>18.5</v>
+      </c>
       <c r="F48" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="J48">
+        <v>29.71</v>
+      </c>
+      <c r="K48">
+        <v>18.85</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1537,13 +1579,41 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D49">
         <v>125.24</v>
       </c>
       <c r="F49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
         <v>58</v>
+      </c>
+      <c r="D50">
+        <v>125.24</v>
+      </c>
+      <c r="F50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51">
+        <v>119.76</v>
+      </c>
+      <c r="F51" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 2.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="63">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -58,6 +58,9 @@
     <t>2021-01-16</t>
   </si>
   <si>
+    <t>2021-01-30</t>
+  </si>
+  <si>
     <t>15 Mar -- 21 Mar 2020</t>
   </si>
   <si>
@@ -194,6 +197,9 @@
   </si>
   <si>
     <t>24 Jan -- 30 Jan 2021</t>
+  </si>
+  <si>
+    <t>31 Jan -- 06 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -554,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,7 +606,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>2.57</v>
@@ -612,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G2">
         <v>0.63</v>
@@ -629,7 +635,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -641,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -649,7 +655,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>22.43</v>
@@ -661,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -669,7 +675,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>62.29</v>
@@ -681,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -689,7 +695,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>106.71</v>
@@ -701,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -709,7 +715,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>167.14</v>
@@ -721,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -729,7 +735,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>159</v>
@@ -741,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -749,7 +755,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>162.71</v>
@@ -761,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -769,7 +775,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>139.57</v>
@@ -781,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -789,7 +795,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>95.14</v>
@@ -801,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -809,7 +815,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>99</v>
@@ -821,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -829,7 +835,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>98.70999999999999</v>
@@ -841,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -849,7 +855,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>47.57</v>
@@ -861,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -869,7 +875,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>40.43</v>
@@ -881,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -889,7 +895,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>15.71</v>
@@ -901,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -909,7 +915,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>22.29</v>
@@ -921,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -929,7 +935,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>12.29</v>
@@ -941,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -949,7 +955,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <v>10.57</v>
@@ -961,7 +967,7 @@
         <v>10.57</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -969,7 +975,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20">
         <v>5.29</v>
@@ -981,7 +987,7 @@
         <v>9.960000000000001</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -989,7 +995,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21">
         <v>8.140000000000001</v>
@@ -1001,7 +1007,7 @@
         <v>10.33</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1009,7 +1015,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>5.43</v>
@@ -1021,7 +1027,7 @@
         <v>17.64</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1029,7 +1035,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>6.86</v>
@@ -1041,7 +1047,7 @@
         <v>15.1</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1049,7 +1055,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24">
         <v>6.43</v>
@@ -1061,7 +1067,7 @@
         <v>8.31</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1069,7 +1075,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25">
         <v>6.29</v>
@@ -1081,7 +1087,7 @@
         <v>2.64</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1089,7 +1095,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26">
         <v>4.43</v>
@@ -1101,7 +1107,7 @@
         <v>4.2</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1109,7 +1115,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -1121,7 +1127,7 @@
         <v>7.8</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1129,7 +1135,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -1141,7 +1147,7 @@
         <v>2.21</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1149,7 +1155,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29">
         <v>7.29</v>
@@ -1161,7 +1167,7 @@
         <v>0.65</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1169,7 +1175,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30">
         <v>25</v>
@@ -1181,7 +1187,7 @@
         <v>18.23</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1189,7 +1195,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31">
         <v>24.71</v>
@@ -1201,7 +1207,7 @@
         <v>56.67</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1209,7 +1215,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32">
         <v>17.29</v>
@@ -1221,7 +1227,7 @@
         <v>101.95</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1229,7 +1235,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33">
         <v>26.71</v>
@@ -1241,7 +1247,7 @@
         <v>20.39</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1249,7 +1255,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C34">
         <v>31.14</v>
@@ -1261,7 +1267,7 @@
         <v>11.71</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1269,7 +1275,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35">
         <v>51.43</v>
@@ -1281,7 +1287,7 @@
         <v>9.82</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1289,7 +1295,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36">
         <v>57.14</v>
@@ -1301,7 +1307,7 @@
         <v>6.4</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1309,7 +1315,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37">
         <v>72.56999999999999</v>
@@ -1321,7 +1327,7 @@
         <v>17.78</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1329,7 +1335,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38">
         <v>76.86</v>
@@ -1341,7 +1347,7 @@
         <v>2.51</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1349,7 +1355,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C39">
         <v>87.70999999999999</v>
@@ -1361,7 +1367,7 @@
         <v>8.710000000000001</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1369,7 +1375,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C40">
         <v>108.57</v>
@@ -1381,7 +1387,7 @@
         <v>30.48</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1389,7 +1395,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C41">
         <v>114.86</v>
@@ -1401,7 +1407,7 @@
         <v>13.38</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1409,7 +1415,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C42">
         <v>94.70999999999999</v>
@@ -1421,7 +1427,7 @@
         <v>14.09</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1429,7 +1435,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C43">
         <v>124.71</v>
@@ -1441,7 +1447,7 @@
         <v>10.19</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1449,7 +1455,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C44">
         <v>166</v>
@@ -1461,7 +1467,7 @@
         <v>46.54</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J44">
         <v>46.54</v>
@@ -1475,25 +1481,25 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C45">
-        <v>145.43</v>
+        <v>142</v>
       </c>
       <c r="D45">
         <v>126.93</v>
       </c>
       <c r="E45">
-        <v>18.5</v>
+        <v>15.07</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J45">
-        <v>32.52</v>
+        <v>30.8</v>
       </c>
       <c r="K45">
-        <v>20.38</v>
+        <v>19.32</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1501,7 +1507,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C46">
         <v>166</v>
@@ -1513,13 +1519,13 @@
         <v>46.54</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J46">
-        <v>37.19</v>
+        <v>36.05</v>
       </c>
       <c r="K46">
-        <v>22.93</v>
+        <v>22.23</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1527,25 +1533,25 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C47">
-        <v>145.43</v>
+        <v>142</v>
       </c>
       <c r="D47">
         <v>126.93</v>
       </c>
       <c r="E47">
-        <v>18.5</v>
+        <v>15.07</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J47">
-        <v>32.52</v>
+        <v>30.8</v>
       </c>
       <c r="K47">
-        <v>20.38</v>
+        <v>19.32</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1553,67 +1559,143 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C48">
-        <v>145.43</v>
+        <v>142</v>
       </c>
       <c r="D48">
         <v>126.93</v>
       </c>
       <c r="E48">
-        <v>18.5</v>
+        <v>15.07</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J48">
-        <v>29.71</v>
+        <v>27.66</v>
       </c>
       <c r="K48">
-        <v>18.85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>17.58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C49">
+        <v>144.86</v>
       </c>
       <c r="D49">
         <v>125.24</v>
       </c>
+      <c r="E49">
+        <v>19.62</v>
+      </c>
       <c r="F49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="J49">
+        <v>26.32</v>
+      </c>
+      <c r="K49">
+        <v>16.91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C50">
+        <v>144.86</v>
       </c>
       <c r="D50">
         <v>125.24</v>
       </c>
+      <c r="E50">
+        <v>19.62</v>
+      </c>
       <c r="F50" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="J50">
+        <v>25.36</v>
+      </c>
+      <c r="K50">
+        <v>16.43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C51">
+        <v>133.43</v>
       </c>
       <c r="D51">
         <v>119.76</v>
       </c>
+      <c r="E51">
+        <v>13.66</v>
+      </c>
       <c r="F51" t="s">
+        <v>62</v>
+      </c>
+      <c r="J51">
+        <v>23.9</v>
+      </c>
+      <c r="K51">
+        <v>15.65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
         <v>60</v>
+      </c>
+      <c r="C52">
+        <v>133.43</v>
+      </c>
+      <c r="D52">
+        <v>122.9</v>
+      </c>
+      <c r="E52">
+        <v>10.52</v>
+      </c>
+      <c r="F52" t="s">
+        <v>62</v>
+      </c>
+      <c r="J52">
+        <v>22.41</v>
+      </c>
+      <c r="K52">
+        <v>14.79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53">
+        <v>130.74</v>
+      </c>
+      <c r="F53" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 2.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="64">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>31 Jan -- 06 Feb 2021</t>
+  </si>
+  <si>
+    <t>07 Feb -- 13 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -560,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G2">
         <v>0.63</v>
@@ -647,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -667,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -687,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -707,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -727,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -747,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -767,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -787,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -807,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -827,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -847,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -867,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -887,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -907,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -927,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -947,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -967,7 +970,7 @@
         <v>10.57</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -987,7 +990,7 @@
         <v>9.960000000000001</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1007,7 +1010,7 @@
         <v>10.33</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1027,7 +1030,7 @@
         <v>17.64</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1047,7 +1050,7 @@
         <v>15.1</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1067,7 +1070,7 @@
         <v>8.31</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1087,7 +1090,7 @@
         <v>2.64</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1107,7 +1110,7 @@
         <v>4.2</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1127,7 +1130,7 @@
         <v>7.8</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1147,7 +1150,7 @@
         <v>2.21</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1167,7 +1170,7 @@
         <v>0.65</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1187,7 +1190,7 @@
         <v>18.23</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1207,7 +1210,7 @@
         <v>56.67</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1227,7 +1230,7 @@
         <v>101.95</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1247,7 +1250,7 @@
         <v>20.39</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1267,7 +1270,7 @@
         <v>11.71</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1287,7 +1290,7 @@
         <v>9.82</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1307,7 +1310,7 @@
         <v>6.4</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1327,7 +1330,7 @@
         <v>17.78</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1347,7 +1350,7 @@
         <v>2.51</v>
       </c>
       <c r="F38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1367,7 +1370,7 @@
         <v>8.710000000000001</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1387,7 +1390,7 @@
         <v>30.48</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1407,7 +1410,7 @@
         <v>13.38</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1427,7 +1430,7 @@
         <v>14.09</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1447,7 +1450,7 @@
         <v>10.19</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1467,7 +1470,7 @@
         <v>46.54</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J44">
         <v>46.54</v>
@@ -1493,7 +1496,7 @@
         <v>15.07</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J45">
         <v>30.8</v>
@@ -1519,7 +1522,7 @@
         <v>46.54</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J46">
         <v>36.05</v>
@@ -1545,7 +1548,7 @@
         <v>15.07</v>
       </c>
       <c r="F47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J47">
         <v>30.8</v>
@@ -1571,7 +1574,7 @@
         <v>15.07</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J48">
         <v>27.66</v>
@@ -1597,7 +1600,7 @@
         <v>19.62</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J49">
         <v>26.32</v>
@@ -1623,7 +1626,7 @@
         <v>19.62</v>
       </c>
       <c r="F50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J50">
         <v>25.36</v>
@@ -1649,7 +1652,7 @@
         <v>13.66</v>
       </c>
       <c r="F51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J51">
         <v>23.9</v>
@@ -1675,7 +1678,7 @@
         <v>10.52</v>
       </c>
       <c r="F52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J52">
         <v>22.41</v>
@@ -1695,7 +1698,35 @@
         <v>130.74</v>
       </c>
       <c r="F53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54">
+        <v>130.74</v>
+      </c>
+      <c r="F54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
         <v>62</v>
+      </c>
+      <c r="D55">
+        <v>127.94</v>
+      </c>
+      <c r="F55" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 2.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="66">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -61,6 +61,9 @@
     <t>2021-01-30</t>
   </si>
   <si>
+    <t>2021-02-13</t>
+  </si>
+  <si>
     <t>15 Mar -- 21 Mar 2020</t>
   </si>
   <si>
@@ -203,6 +206,9 @@
   </si>
   <si>
     <t>07 Feb -- 13 Feb 2021</t>
+  </si>
+  <si>
+    <t>14 Feb -- 20 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -563,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,7 +615,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>2.57</v>
@@ -621,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G2">
         <v>0.63</v>
@@ -638,7 +644,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -650,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -658,7 +664,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>22.43</v>
@@ -670,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -678,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>62.29</v>
@@ -690,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -698,7 +704,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>106.71</v>
@@ -710,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -718,7 +724,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>167.14</v>
@@ -730,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -738,7 +744,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>159</v>
@@ -750,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,7 +764,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>162.71</v>
@@ -770,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -778,7 +784,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>139.57</v>
@@ -790,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -798,7 +804,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>95.14</v>
@@ -810,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -818,7 +824,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>99</v>
@@ -830,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -838,7 +844,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>98.70999999999999</v>
@@ -850,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -858,7 +864,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>47.57</v>
@@ -870,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -878,7 +884,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>40.43</v>
@@ -890,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -898,7 +904,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>15.71</v>
@@ -910,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -918,7 +924,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>22.29</v>
@@ -930,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -938,7 +944,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>12.29</v>
@@ -950,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -958,7 +964,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>10.57</v>
@@ -970,7 +976,7 @@
         <v>10.57</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -978,7 +984,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>5.29</v>
@@ -990,7 +996,7 @@
         <v>9.960000000000001</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -998,7 +1004,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>8.140000000000001</v>
@@ -1010,7 +1016,7 @@
         <v>10.33</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1018,7 +1024,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>5.43</v>
@@ -1030,7 +1036,7 @@
         <v>17.64</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1038,7 +1044,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23">
         <v>6.86</v>
@@ -1050,7 +1056,7 @@
         <v>15.1</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1058,7 +1064,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>6.43</v>
@@ -1070,7 +1076,7 @@
         <v>8.31</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1078,7 +1084,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <v>6.29</v>
@@ -1090,7 +1096,7 @@
         <v>2.64</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1098,7 +1104,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>4.43</v>
@@ -1110,7 +1116,7 @@
         <v>4.2</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1118,7 +1124,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -1130,7 +1136,7 @@
         <v>7.8</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1138,7 +1144,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -1150,7 +1156,7 @@
         <v>2.21</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1158,7 +1164,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>7.29</v>
@@ -1170,7 +1176,7 @@
         <v>0.65</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1178,7 +1184,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30">
         <v>25</v>
@@ -1190,7 +1196,7 @@
         <v>18.23</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1198,7 +1204,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31">
         <v>24.71</v>
@@ -1210,7 +1216,7 @@
         <v>56.67</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1218,7 +1224,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32">
         <v>17.29</v>
@@ -1230,7 +1236,7 @@
         <v>101.95</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1238,7 +1244,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33">
         <v>26.71</v>
@@ -1250,7 +1256,7 @@
         <v>20.39</v>
       </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1258,7 +1264,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34">
         <v>31.14</v>
@@ -1270,7 +1276,7 @@
         <v>11.71</v>
       </c>
       <c r="F34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1278,7 +1284,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35">
         <v>51.43</v>
@@ -1290,7 +1296,7 @@
         <v>9.82</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1298,7 +1304,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36">
         <v>57.14</v>
@@ -1310,7 +1316,7 @@
         <v>6.4</v>
       </c>
       <c r="F36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1318,7 +1324,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37">
         <v>72.56999999999999</v>
@@ -1330,7 +1336,7 @@
         <v>17.78</v>
       </c>
       <c r="F37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1338,7 +1344,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>76.86</v>
@@ -1350,7 +1356,7 @@
         <v>2.51</v>
       </c>
       <c r="F38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1358,7 +1364,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39">
         <v>87.70999999999999</v>
@@ -1370,7 +1376,7 @@
         <v>8.710000000000001</v>
       </c>
       <c r="F39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1378,7 +1384,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40">
         <v>108.57</v>
@@ -1390,7 +1396,7 @@
         <v>30.48</v>
       </c>
       <c r="F40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1398,7 +1404,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41">
         <v>114.86</v>
@@ -1410,7 +1416,7 @@
         <v>13.38</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1418,7 +1424,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42">
         <v>94.70999999999999</v>
@@ -1430,7 +1436,7 @@
         <v>14.09</v>
       </c>
       <c r="F42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1438,7 +1444,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C43">
         <v>124.71</v>
@@ -1450,7 +1456,7 @@
         <v>10.19</v>
       </c>
       <c r="F43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1458,7 +1464,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C44">
         <v>166</v>
@@ -1470,7 +1476,7 @@
         <v>46.54</v>
       </c>
       <c r="F44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J44">
         <v>46.54</v>
@@ -1484,7 +1490,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C45">
         <v>142</v>
@@ -1496,7 +1502,7 @@
         <v>15.07</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J45">
         <v>30.8</v>
@@ -1510,7 +1516,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C46">
         <v>166</v>
@@ -1522,7 +1528,7 @@
         <v>46.54</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J46">
         <v>36.05</v>
@@ -1536,7 +1542,7 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C47">
         <v>142</v>
@@ -1548,7 +1554,7 @@
         <v>15.07</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J47">
         <v>30.8</v>
@@ -1562,7 +1568,7 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C48">
         <v>142</v>
@@ -1574,7 +1580,7 @@
         <v>15.07</v>
       </c>
       <c r="F48" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J48">
         <v>27.66</v>
@@ -1588,7 +1594,7 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C49">
         <v>144.86</v>
@@ -1600,7 +1606,7 @@
         <v>19.62</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J49">
         <v>26.32</v>
@@ -1614,7 +1620,7 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C50">
         <v>144.86</v>
@@ -1626,7 +1632,7 @@
         <v>19.62</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J50">
         <v>25.36</v>
@@ -1640,7 +1646,7 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C51">
         <v>133.43</v>
@@ -1652,7 +1658,7 @@
         <v>13.66</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J51">
         <v>23.9</v>
@@ -1666,7 +1672,7 @@
         <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C52">
         <v>133.43</v>
@@ -1678,7 +1684,7 @@
         <v>10.52</v>
       </c>
       <c r="F52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J52">
         <v>22.41</v>
@@ -1692,13 +1698,25 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C53">
+        <v>106</v>
       </c>
       <c r="D53">
         <v>130.74</v>
       </c>
+      <c r="E53">
+        <v>24.74</v>
+      </c>
       <c r="F53" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="J53">
+        <v>22.64</v>
+      </c>
+      <c r="K53">
+        <v>15.65</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1706,13 +1724,25 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C54">
+        <v>106</v>
       </c>
       <c r="D54">
         <v>130.74</v>
       </c>
+      <c r="E54">
+        <v>24.74</v>
+      </c>
       <c r="F54" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="J54">
+        <v>22.84</v>
+      </c>
+      <c r="K54">
+        <v>16.35</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1720,13 +1750,65 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="C55">
+        <v>76.86</v>
       </c>
       <c r="D55">
         <v>127.94</v>
       </c>
+      <c r="E55">
+        <v>51.08</v>
+      </c>
       <c r="F55" t="s">
+        <v>65</v>
+      </c>
+      <c r="J55">
+        <v>25.19</v>
+      </c>
+      <c r="K55">
+        <v>20.52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
         <v>63</v>
+      </c>
+      <c r="C56">
+        <v>76.86</v>
+      </c>
+      <c r="D56">
+        <v>128.33</v>
+      </c>
+      <c r="E56">
+        <v>51.47</v>
+      </c>
+      <c r="F56" t="s">
+        <v>65</v>
+      </c>
+      <c r="J56">
+        <v>27.21</v>
+      </c>
+      <c r="K56">
+        <v>24.09</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57">
+        <v>123.87</v>
+      </c>
+      <c r="F57" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 2.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="69">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -64,6 +64,9 @@
     <t>2021-02-13</t>
   </si>
   <si>
+    <t>2021-02-20</t>
+  </si>
+  <si>
     <t>15 Mar -- 21 Mar 2020</t>
   </si>
   <si>
@@ -209,6 +212,12 @@
   </si>
   <si>
     <t>14 Feb -- 20 Feb 2021</t>
+  </si>
+  <si>
+    <t>21 Feb -- 27 Feb 2021</t>
+  </si>
+  <si>
+    <t>28 Feb -- 06 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -569,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,7 +624,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>2.57</v>
@@ -627,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G2">
         <v>0.63</v>
@@ -644,7 +653,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -656,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -664,7 +673,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>22.43</v>
@@ -676,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -684,7 +693,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>62.29</v>
@@ -696,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -704,7 +713,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>106.71</v>
@@ -716,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -724,7 +733,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>167.14</v>
@@ -736,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -744,7 +753,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>159</v>
@@ -756,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -764,7 +773,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>162.71</v>
@@ -776,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -784,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>139.57</v>
@@ -796,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -804,7 +813,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>95.14</v>
@@ -816,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -824,7 +833,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>99</v>
@@ -836,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -844,7 +853,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>98.70999999999999</v>
@@ -856,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -864,7 +873,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>47.57</v>
@@ -876,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -884,7 +893,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>40.43</v>
@@ -896,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -904,7 +913,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>15.71</v>
@@ -916,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -924,7 +933,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>22.29</v>
@@ -936,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -944,7 +953,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>12.29</v>
@@ -956,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -964,7 +973,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>10.57</v>
@@ -976,7 +985,7 @@
         <v>10.57</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -984,7 +993,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>5.29</v>
@@ -996,7 +1005,7 @@
         <v>9.960000000000001</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1004,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>8.140000000000001</v>
@@ -1016,7 +1025,7 @@
         <v>10.33</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1024,7 +1033,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>5.43</v>
@@ -1036,7 +1045,7 @@
         <v>17.64</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1044,7 +1053,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>6.86</v>
@@ -1056,7 +1065,7 @@
         <v>15.1</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1064,7 +1073,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>6.43</v>
@@ -1076,7 +1085,7 @@
         <v>8.31</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1084,7 +1093,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>6.29</v>
@@ -1096,7 +1105,7 @@
         <v>2.64</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1104,7 +1113,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>4.43</v>
@@ -1116,7 +1125,7 @@
         <v>4.2</v>
       </c>
       <c r="F26" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1124,7 +1133,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -1136,7 +1145,7 @@
         <v>7.8</v>
       </c>
       <c r="F27" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1144,7 +1153,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -1156,7 +1165,7 @@
         <v>2.21</v>
       </c>
       <c r="F28" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1164,7 +1173,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29">
         <v>7.29</v>
@@ -1176,7 +1185,7 @@
         <v>0.65</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1184,7 +1193,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>25</v>
@@ -1196,7 +1205,7 @@
         <v>18.23</v>
       </c>
       <c r="F30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1204,7 +1213,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31">
         <v>24.71</v>
@@ -1216,7 +1225,7 @@
         <v>56.67</v>
       </c>
       <c r="F31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1224,7 +1233,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32">
         <v>17.29</v>
@@ -1236,7 +1245,7 @@
         <v>101.95</v>
       </c>
       <c r="F32" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1244,7 +1253,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33">
         <v>26.71</v>
@@ -1256,7 +1265,7 @@
         <v>20.39</v>
       </c>
       <c r="F33" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1264,7 +1273,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34">
         <v>31.14</v>
@@ -1276,7 +1285,7 @@
         <v>11.71</v>
       </c>
       <c r="F34" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1284,7 +1293,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <v>51.43</v>
@@ -1296,7 +1305,7 @@
         <v>9.82</v>
       </c>
       <c r="F35" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1304,7 +1313,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>57.14</v>
@@ -1316,7 +1325,7 @@
         <v>6.4</v>
       </c>
       <c r="F36" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1324,7 +1333,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37">
         <v>72.56999999999999</v>
@@ -1336,7 +1345,7 @@
         <v>17.78</v>
       </c>
       <c r="F37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1344,7 +1353,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38">
         <v>76.86</v>
@@ -1356,7 +1365,7 @@
         <v>2.51</v>
       </c>
       <c r="F38" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1364,7 +1373,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39">
         <v>87.70999999999999</v>
@@ -1376,7 +1385,7 @@
         <v>8.710000000000001</v>
       </c>
       <c r="F39" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1384,7 +1393,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40">
         <v>108.57</v>
@@ -1396,7 +1405,7 @@
         <v>30.48</v>
       </c>
       <c r="F40" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1404,7 +1413,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41">
         <v>114.86</v>
@@ -1416,7 +1425,7 @@
         <v>13.38</v>
       </c>
       <c r="F41" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1424,7 +1433,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C42">
         <v>94.70999999999999</v>
@@ -1436,7 +1445,7 @@
         <v>14.09</v>
       </c>
       <c r="F42" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1444,7 +1453,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43">
         <v>124.71</v>
@@ -1456,7 +1465,7 @@
         <v>10.19</v>
       </c>
       <c r="F43" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1464,7 +1473,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C44">
         <v>166</v>
@@ -1476,7 +1485,7 @@
         <v>46.54</v>
       </c>
       <c r="F44" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J44">
         <v>46.54</v>
@@ -1490,7 +1499,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C45">
         <v>142</v>
@@ -1502,7 +1511,7 @@
         <v>15.07</v>
       </c>
       <c r="F45" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J45">
         <v>30.8</v>
@@ -1516,7 +1525,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C46">
         <v>166</v>
@@ -1528,7 +1537,7 @@
         <v>46.54</v>
       </c>
       <c r="F46" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J46">
         <v>36.05</v>
@@ -1542,7 +1551,7 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C47">
         <v>142</v>
@@ -1554,7 +1563,7 @@
         <v>15.07</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J47">
         <v>30.8</v>
@@ -1568,7 +1577,7 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C48">
         <v>142</v>
@@ -1580,7 +1589,7 @@
         <v>15.07</v>
       </c>
       <c r="F48" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J48">
         <v>27.66</v>
@@ -1594,7 +1603,7 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C49">
         <v>144.86</v>
@@ -1606,7 +1615,7 @@
         <v>19.62</v>
       </c>
       <c r="F49" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J49">
         <v>26.32</v>
@@ -1620,7 +1629,7 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C50">
         <v>144.86</v>
@@ -1632,7 +1641,7 @@
         <v>19.62</v>
       </c>
       <c r="F50" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J50">
         <v>25.36</v>
@@ -1646,7 +1655,7 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C51">
         <v>133.43</v>
@@ -1658,7 +1667,7 @@
         <v>13.66</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J51">
         <v>23.9</v>
@@ -1672,7 +1681,7 @@
         <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52">
         <v>133.43</v>
@@ -1684,7 +1693,7 @@
         <v>10.52</v>
       </c>
       <c r="F52" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J52">
         <v>22.41</v>
@@ -1698,7 +1707,7 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C53">
         <v>106</v>
@@ -1710,7 +1719,7 @@
         <v>24.74</v>
       </c>
       <c r="F53" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J53">
         <v>22.64</v>
@@ -1724,7 +1733,7 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C54">
         <v>106</v>
@@ -1736,7 +1745,7 @@
         <v>24.74</v>
       </c>
       <c r="F54" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J54">
         <v>22.84</v>
@@ -1750,7 +1759,7 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C55">
         <v>76.86</v>
@@ -1762,7 +1771,7 @@
         <v>51.08</v>
       </c>
       <c r="F55" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J55">
         <v>25.19</v>
@@ -1776,7 +1785,7 @@
         <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C56">
         <v>76.86</v>
@@ -1788,7 +1797,7 @@
         <v>51.47</v>
       </c>
       <c r="F56" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J56">
         <v>27.21</v>
@@ -1802,13 +1811,53 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="C57">
+        <v>56.14</v>
       </c>
       <c r="D57">
         <v>123.87</v>
       </c>
+      <c r="E57">
+        <v>67.72</v>
+      </c>
       <c r="F57" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+      <c r="J57">
+        <v>30.1</v>
+      </c>
+      <c r="K57">
+        <v>30.99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58">
+        <v>117.28</v>
+      </c>
+      <c r="F58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59">
+        <v>105.04</v>
+      </c>
+      <c r="F59" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
